--- a/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_NCC.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_NCC.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,7 @@
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="4" width="14.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>

--- a/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_NCC.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_NCC.xlsx
@@ -34,55 +34,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Thêm mới :</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Mã NCC sẽ tự sinh nếu để trống
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cập nhật :</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Mã NCC không để trống và không trùng lặp</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SĐT</t>
   </si>
@@ -97,9 +54,6 @@
   </si>
   <si>
     <t>Tên NCC</t>
-  </si>
-  <si>
-    <t>Mã NCC</t>
   </si>
   <si>
     <t>Fax</t>
@@ -127,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +104,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -497,68 +445,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
